--- a/hasil_akhir.xlsx
+++ b/hasil_akhir.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -730,7 +730,7 @@
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -797,7 +797,7 @@
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -864,7 +864,7 @@
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -931,7 +931,7 @@
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -998,7 +998,7 @@
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -7162,7 +7162,7 @@
       </c>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -7698,7 +7698,7 @@
       </c>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="V156" t="inlineStr"/>
       <c r="W156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -48233,7 +48233,7 @@
       </c>
       <c r="V713" t="inlineStr"/>
       <c r="W713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -54196,7 +54196,7 @@
       </c>
       <c r="V802" t="inlineStr"/>
       <c r="W802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -55737,7 +55737,7 @@
       </c>
       <c r="V825" t="inlineStr"/>
       <c r="W825" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -56742,7 +56742,7 @@
       </c>
       <c r="V840" t="inlineStr"/>
       <c r="W840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
